--- a/src/test/resources/ServiceUser.xlsx
+++ b/src/test/resources/ServiceUser.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15165" windowHeight="3870"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15165" windowHeight="2670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -280,7 +280,7 @@
     <t>Kadam</t>
   </si>
   <si>
-    <t>suraj4@gmail.co.uk</t>
+    <t>suraj7@gmail.co.uk</t>
   </si>
 </sst>
 </file>
@@ -718,7 +718,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -728,7 +728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AR2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/ServiceUser.xlsx
+++ b/src/test/resources/ServiceUser.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15165" windowHeight="2670"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="19770" windowHeight="2670"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -280,7 +280,7 @@
     <t>Kadam</t>
   </si>
   <si>
-    <t>suraj7@gmail.co.uk</t>
+    <t>udhav3@gmail.co.uk</t>
   </si>
 </sst>
 </file>
@@ -718,7 +718,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
